--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/35/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/35/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>3.25094</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>3250.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.123988</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.80872</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3808.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.155023</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>4.30452</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>4304.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185999</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>4.68403</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>4684.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216971</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>4.980300000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>4980.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247929</v>
       </c>
       <c r="B10" t="n">
-        <v>8.920579999999999</v>
+        <v>5.18715</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.58</v>
+        <v>5187.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278854</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0149</v>
+        <v>5.29978</v>
       </c>
       <c r="C11" t="n">
-        <v>10014.9</v>
+        <v>5299.78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309773</v>
+        <v>0.309779</v>
       </c>
       <c r="B12" t="n">
-        <v>10.9704</v>
+        <v>5.34929</v>
       </c>
       <c r="C12" t="n">
-        <v>10970.4</v>
+        <v>5349.29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340704</v>
       </c>
       <c r="B13" t="n">
-        <v>11.7868</v>
+        <v>5.384840000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>11786.8</v>
+        <v>5384.84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371629</v>
       </c>
       <c r="B14" t="n">
-        <v>12.5157</v>
+        <v>5.403390000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>12515.7</v>
+        <v>5403.39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402554</v>
       </c>
       <c r="B15" t="n">
-        <v>13.3612</v>
+        <v>5.420430000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>13361.2</v>
+        <v>5420.43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433479</v>
       </c>
       <c r="B16" t="n">
-        <v>13.9949</v>
+        <v>5.43528</v>
       </c>
       <c r="C16" t="n">
-        <v>13994.9</v>
+        <v>5435.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464404</v>
       </c>
       <c r="B17" t="n">
-        <v>14.5725</v>
+        <v>5.448720000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>14572.5</v>
+        <v>5448.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495329</v>
       </c>
       <c r="B18" t="n">
-        <v>15.0367</v>
+        <v>5.46013</v>
       </c>
       <c r="C18" t="n">
-        <v>15036.7</v>
+        <v>5460.13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526254</v>
       </c>
       <c r="B19" t="n">
-        <v>15.4898</v>
+        <v>5.47008</v>
       </c>
       <c r="C19" t="n">
-        <v>15489.8</v>
+        <v>5470.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557179</v>
       </c>
       <c r="B20" t="n">
-        <v>15.7832</v>
+        <v>5.48004</v>
       </c>
       <c r="C20" t="n">
-        <v>15783.2</v>
+        <v>5480.04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.588104</v>
       </c>
       <c r="B21" t="n">
-        <v>15.9275</v>
+        <v>5.48838</v>
       </c>
       <c r="C21" t="n">
-        <v>15927.5</v>
+        <v>5488.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.619146</v>
       </c>
       <c r="B22" t="n">
-        <v>15.9436</v>
+        <v>5.49646</v>
       </c>
       <c r="C22" t="n">
-        <v>15943.6</v>
+        <v>5496.46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650313</v>
+        <v>0.650319</v>
       </c>
       <c r="B23" t="n">
-        <v>15.905</v>
+        <v>5.50356</v>
       </c>
       <c r="C23" t="n">
-        <v>15905</v>
+        <v>5503.56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.681491</v>
       </c>
       <c r="B24" t="n">
-        <v>15.8573</v>
+        <v>5.51032</v>
       </c>
       <c r="C24" t="n">
-        <v>15857.3</v>
+        <v>5510.32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.712668</v>
       </c>
       <c r="B25" t="n">
-        <v>15.8052</v>
+        <v>5.51628</v>
       </c>
       <c r="C25" t="n">
-        <v>15805.2</v>
+        <v>5516.28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.743841</v>
       </c>
       <c r="B26" t="n">
-        <v>15.75</v>
+        <v>5.52181</v>
       </c>
       <c r="C26" t="n">
-        <v>15750</v>
+        <v>5521.81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775018</v>
       </c>
       <c r="B27" t="n">
-        <v>15.6926</v>
+        <v>5.52684</v>
       </c>
       <c r="C27" t="n">
-        <v>15692.6</v>
+        <v>5526.84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.80619</v>
       </c>
       <c r="B28" t="n">
-        <v>15.6328</v>
+        <v>5.53139</v>
       </c>
       <c r="C28" t="n">
-        <v>15632.8</v>
+        <v>5531.39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837363</v>
       </c>
       <c r="B29" t="n">
-        <v>15.5708</v>
+        <v>5.5355</v>
       </c>
       <c r="C29" t="n">
-        <v>15570.8</v>
+        <v>5535.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.86854</v>
       </c>
       <c r="B30" t="n">
-        <v>15.5062</v>
+        <v>5.53923</v>
       </c>
       <c r="C30" t="n">
-        <v>15506.2</v>
+        <v>5539.23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.899712</v>
       </c>
       <c r="B31" t="n">
-        <v>15.4394</v>
+        <v>5.542560000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>15439.4</v>
+        <v>5542.56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.930885</v>
       </c>
       <c r="B32" t="n">
-        <v>15.3691</v>
+        <v>5.545500000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>15369.1</v>
+        <v>5545.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.962062</v>
       </c>
       <c r="B33" t="n">
-        <v>15.2941</v>
+        <v>5.54809</v>
       </c>
       <c r="C33" t="n">
-        <v>15294.1</v>
+        <v>5548.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993229</v>
+        <v>0.993235</v>
       </c>
       <c r="B34" t="n">
-        <v>15.2148</v>
+        <v>5.55034</v>
       </c>
       <c r="C34" t="n">
-        <v>15214.8</v>
+        <v>5550.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02425</v>
+        <v>1.02431</v>
       </c>
       <c r="B35" t="n">
-        <v>15.1298</v>
+        <v>5.55225</v>
       </c>
       <c r="C35" t="n">
-        <v>15129.8</v>
+        <v>5552.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05522</v>
+        <v>1.05528</v>
       </c>
       <c r="B36" t="n">
-        <v>15.0392</v>
+        <v>5.553859999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>15039.2</v>
+        <v>5553.86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08619</v>
+        <v>1.08624</v>
       </c>
       <c r="B37" t="n">
-        <v>14.9429</v>
+        <v>5.555149999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>14942.9</v>
+        <v>5555.15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11716</v>
+        <v>1.11721</v>
       </c>
       <c r="B38" t="n">
-        <v>14.8414</v>
+        <v>5.55615</v>
       </c>
       <c r="C38" t="n">
-        <v>14841.4</v>
+        <v>5556.15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14812</v>
+        <v>1.14818</v>
       </c>
       <c r="B39" t="n">
-        <v>14.7326</v>
+        <v>5.556850000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>14732.6</v>
+        <v>5556.85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17909</v>
+        <v>1.1791</v>
       </c>
       <c r="B40" t="n">
-        <v>14.6197</v>
+        <v>5.55728</v>
       </c>
       <c r="C40" t="n">
-        <v>14619.7</v>
+        <v>5557.28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21006</v>
+        <v>1.21015</v>
       </c>
       <c r="B41" t="n">
-        <v>14.4985</v>
+        <v>5.55744</v>
       </c>
       <c r="C41" t="n">
-        <v>14498.5</v>
+        <v>5557.44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24103</v>
+        <v>1.24074</v>
       </c>
       <c r="B42" t="n">
-        <v>14.3716</v>
+        <v>5.55732</v>
       </c>
       <c r="C42" t="n">
-        <v>14371.6</v>
+        <v>5557.32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27199</v>
+        <v>1.27129</v>
       </c>
       <c r="B43" t="n">
-        <v>14.2367</v>
+        <v>5.55694</v>
       </c>
       <c r="C43" t="n">
-        <v>14236.7</v>
+        <v>5556.94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30296</v>
+        <v>1.30262</v>
       </c>
       <c r="B44" t="n">
-        <v>14.0952</v>
+        <v>5.55627</v>
       </c>
       <c r="C44" t="n">
-        <v>14095.2</v>
+        <v>5556.27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33418</v>
+        <v>1.33419</v>
       </c>
       <c r="B45" t="n">
-        <v>9.23859</v>
+        <v>5.55532</v>
       </c>
       <c r="C45" t="n">
-        <v>9238.59</v>
+        <v>5555.32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36541</v>
+        <v>1.36542</v>
       </c>
       <c r="B46" t="n">
-        <v>13.1289</v>
+        <v>5.5541</v>
       </c>
       <c r="C46" t="n">
-        <v>13128.9</v>
+        <v>5554.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39655</v>
+        <v>1.39657</v>
       </c>
       <c r="B47" t="n">
-        <v>15.3409</v>
+        <v>5.552600000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>15340.9</v>
+        <v>5552.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42727</v>
+        <v>1.42771</v>
       </c>
       <c r="B48" t="n">
-        <v>14.1077</v>
+        <v>5.55079</v>
       </c>
       <c r="C48" t="n">
-        <v>14107.7</v>
+        <v>5550.79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45799</v>
+        <v>1.45886</v>
       </c>
       <c r="B49" t="n">
-        <v>13.7935</v>
+        <v>5.54866</v>
       </c>
       <c r="C49" t="n">
-        <v>13793.5</v>
+        <v>5548.66</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48878</v>
+        <v>1.49001</v>
       </c>
       <c r="B50" t="n">
-        <v>14.1431</v>
+        <v>5.54626</v>
       </c>
       <c r="C50" t="n">
-        <v>14143.1</v>
+        <v>5546.26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52017</v>
+        <v>1.52085</v>
       </c>
       <c r="B51" t="n">
-        <v>13.9382</v>
+        <v>5.54359</v>
       </c>
       <c r="C51" t="n">
-        <v>13938.2</v>
+        <v>5543.59</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55111</v>
+        <v>1.55157</v>
       </c>
       <c r="B52" t="n">
-        <v>13.7144</v>
+        <v>5.54066</v>
       </c>
       <c r="C52" t="n">
-        <v>13714.4</v>
+        <v>5540.66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58165</v>
+        <v>1.58229</v>
       </c>
       <c r="B53" t="n">
-        <v>13.4854</v>
+        <v>5.53742</v>
       </c>
       <c r="C53" t="n">
-        <v>13485.4</v>
+        <v>5537.42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61297</v>
+        <v>1.61301</v>
       </c>
       <c r="B54" t="n">
-        <v>13.4274</v>
+        <v>5.53395</v>
       </c>
       <c r="C54" t="n">
-        <v>13427.4</v>
+        <v>5533.95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64409</v>
+        <v>1.64373</v>
       </c>
       <c r="B55" t="n">
-        <v>13.2471</v>
+        <v>5.530220000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>13247.1</v>
+        <v>5530.22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67469</v>
+        <v>1.67444</v>
       </c>
       <c r="B56" t="n">
-        <v>13.1322</v>
+        <v>5.52618</v>
       </c>
       <c r="C56" t="n">
-        <v>13132.2</v>
+        <v>5526.18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70564</v>
+        <v>1.70517</v>
       </c>
       <c r="B57" t="n">
-        <v>12.8474</v>
+        <v>5.521920000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>12847.4</v>
+        <v>5521.92</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73705</v>
+        <v>1.73589</v>
       </c>
       <c r="B58" t="n">
-        <v>12.6584</v>
+        <v>5.51738</v>
       </c>
       <c r="C58" t="n">
-        <v>12658.4</v>
+        <v>5517.38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76805</v>
+        <v>1.76661</v>
       </c>
       <c r="B59" t="n">
-        <v>12.4577</v>
+        <v>5.51253</v>
       </c>
       <c r="C59" t="n">
-        <v>12457.7</v>
+        <v>5512.53</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79906</v>
+        <v>1.79699</v>
       </c>
       <c r="B60" t="n">
-        <v>12.2794</v>
+        <v>5.507470000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>12279.4</v>
+        <v>5507.47</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83006</v>
+        <v>1.82826</v>
       </c>
       <c r="B61" t="n">
-        <v>11.9885</v>
+        <v>5.50196</v>
       </c>
       <c r="C61" t="n">
-        <v>11988.5</v>
+        <v>5501.96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86107</v>
+        <v>1.8596</v>
       </c>
       <c r="B62" t="n">
-        <v>11.7705</v>
+        <v>5.49607</v>
       </c>
       <c r="C62" t="n">
-        <v>11770.5</v>
+        <v>5496.07</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89195</v>
+        <v>1.89093</v>
       </c>
       <c r="B63" t="n">
-        <v>11.5682</v>
+        <v>5.48993</v>
       </c>
       <c r="C63" t="n">
-        <v>11568.2</v>
+        <v>5489.93</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92292</v>
+        <v>1.92227</v>
       </c>
       <c r="B64" t="n">
-        <v>11.3858</v>
+        <v>5.48349</v>
       </c>
       <c r="C64" t="n">
-        <v>11385.8</v>
+        <v>5483.49</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95386</v>
+        <v>1.95361</v>
       </c>
       <c r="B65" t="n">
-        <v>11.189</v>
+        <v>5.476739999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>11189</v>
+        <v>5476.74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98485</v>
+        <v>1.98495</v>
       </c>
       <c r="B66" t="n">
-        <v>10.9425</v>
+        <v>5.469609999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>10942.5</v>
+        <v>5469.61</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01583</v>
+        <v>2.01622</v>
       </c>
       <c r="B67" t="n">
-        <v>10.7371</v>
+        <v>5.46218</v>
       </c>
       <c r="C67" t="n">
-        <v>10737.1</v>
+        <v>5462.18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04669</v>
+        <v>2.04712</v>
       </c>
       <c r="B68" t="n">
-        <v>10.5301</v>
+        <v>5.45449</v>
       </c>
       <c r="C68" t="n">
-        <v>10530.1</v>
+        <v>5454.49</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07789</v>
+        <v>2.07801</v>
       </c>
       <c r="B69" t="n">
-        <v>10.394</v>
+        <v>5.44644</v>
       </c>
       <c r="C69" t="n">
-        <v>10394</v>
+        <v>5446.44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10861</v>
+        <v>2.10891</v>
       </c>
       <c r="B70" t="n">
-        <v>10.1754</v>
+        <v>5.4379</v>
       </c>
       <c r="C70" t="n">
-        <v>10175.4</v>
+        <v>5437.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14014</v>
+        <v>2.1398</v>
       </c>
       <c r="B71" t="n">
-        <v>9.978730000000001</v>
+        <v>5.428739999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>9978.73</v>
+        <v>5428.74</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17061</v>
+        <v>2.1707</v>
       </c>
       <c r="B72" t="n">
-        <v>9.78107</v>
+        <v>5.419140000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>9781.07</v>
+        <v>5419.14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20209</v>
+        <v>2.2016</v>
       </c>
       <c r="B73" t="n">
-        <v>9.658910000000001</v>
+        <v>5.40896</v>
       </c>
       <c r="C73" t="n">
-        <v>9658.91</v>
+        <v>5408.96</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23273</v>
+        <v>2.23249</v>
       </c>
       <c r="B74" t="n">
-        <v>9.460510000000001</v>
+        <v>5.39821</v>
       </c>
       <c r="C74" t="n">
-        <v>9460.51</v>
+        <v>5398.21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26368</v>
+        <v>2.26339</v>
       </c>
       <c r="B75" t="n">
-        <v>9.308770000000001</v>
+        <v>5.38705</v>
       </c>
       <c r="C75" t="n">
-        <v>9308.77</v>
+        <v>5387.05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29489</v>
+        <v>2.29429</v>
       </c>
       <c r="B76" t="n">
-        <v>9.154339999999999</v>
+        <v>5.37549</v>
       </c>
       <c r="C76" t="n">
-        <v>9154.34</v>
+        <v>5375.49</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32562</v>
+        <v>2.32519</v>
       </c>
       <c r="B77" t="n">
-        <v>9.015319999999999</v>
+        <v>5.3634</v>
       </c>
       <c r="C77" t="n">
-        <v>9015.32</v>
+        <v>5363.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35676</v>
+        <v>2.35608</v>
       </c>
       <c r="B78" t="n">
-        <v>8.872059999999999</v>
+        <v>5.35084</v>
       </c>
       <c r="C78" t="n">
-        <v>8872.059999999999</v>
+        <v>5350.84</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38783</v>
+        <v>2.38698</v>
       </c>
       <c r="B79" t="n">
-        <v>8.71533</v>
+        <v>5.33776</v>
       </c>
       <c r="C79" t="n">
-        <v>8715.33</v>
+        <v>5337.76</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41889</v>
+        <v>2.41787</v>
       </c>
       <c r="B80" t="n">
-        <v>8.59699</v>
+        <v>5.32401</v>
       </c>
       <c r="C80" t="n">
-        <v>8596.99</v>
+        <v>5324.01</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44877</v>
+        <v>2.44974</v>
       </c>
       <c r="B81" t="n">
-        <v>8.46067</v>
+        <v>5.30909</v>
       </c>
       <c r="C81" t="n">
-        <v>8460.67</v>
+        <v>5309.09</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47833</v>
+        <v>2.48173</v>
       </c>
       <c r="B82" t="n">
-        <v>8.366440000000001</v>
+        <v>5.29324</v>
       </c>
       <c r="C82" t="n">
-        <v>8366.440000000001</v>
+        <v>5293.24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50987</v>
+        <v>2.51374</v>
       </c>
       <c r="B83" t="n">
-        <v>8.24325</v>
+        <v>5.27653</v>
       </c>
       <c r="C83" t="n">
-        <v>8243.25</v>
+        <v>5276.53</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54198</v>
+        <v>2.54573</v>
       </c>
       <c r="B84" t="n">
-        <v>8.134270000000001</v>
+        <v>5.25896</v>
       </c>
       <c r="C84" t="n">
-        <v>8134.27</v>
+        <v>5258.96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57333</v>
+        <v>2.57774</v>
       </c>
       <c r="B85" t="n">
-        <v>8.029109999999999</v>
+        <v>5.24037</v>
       </c>
       <c r="C85" t="n">
-        <v>8029.11</v>
+        <v>5240.37</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60522</v>
+        <v>2.60973</v>
       </c>
       <c r="B86" t="n">
-        <v>7.93522</v>
+        <v>5.22092</v>
       </c>
       <c r="C86" t="n">
-        <v>7935.22</v>
+        <v>5220.92</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63606</v>
+        <v>2.64098</v>
       </c>
       <c r="B87" t="n">
-        <v>7.827050000000001</v>
+        <v>5.200640000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>7827.05</v>
+        <v>5200.64</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66666</v>
+        <v>2.67207</v>
       </c>
       <c r="B88" t="n">
-        <v>7.7939</v>
+        <v>5.17959</v>
       </c>
       <c r="C88" t="n">
-        <v>7793.9</v>
+        <v>5179.59</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.6954</v>
+        <v>2.70252</v>
       </c>
       <c r="B89" t="n">
-        <v>7.75967</v>
+        <v>5.15767</v>
       </c>
       <c r="C89" t="n">
-        <v>7759.67</v>
+        <v>5157.67</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72356</v>
+        <v>2.733</v>
       </c>
       <c r="B90" t="n">
-        <v>7.74117</v>
+        <v>5.134840000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>7741.17</v>
+        <v>5134.84</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75172</v>
+        <v>2.76473</v>
       </c>
       <c r="B91" t="n">
-        <v>7.71221</v>
+        <v>5.10945</v>
       </c>
       <c r="C91" t="n">
-        <v>7712.21</v>
+        <v>5109.45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78229</v>
+        <v>2.79623</v>
       </c>
       <c r="B92" t="n">
-        <v>7.69282</v>
+        <v>5.08317</v>
       </c>
       <c r="C92" t="n">
-        <v>7692.82</v>
+        <v>5083.17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81734</v>
+        <v>2.82684</v>
       </c>
       <c r="B93" t="n">
-        <v>7.64928</v>
+        <v>5.055890000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>7649.28</v>
+        <v>5055.89</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85216</v>
+        <v>2.85717</v>
       </c>
       <c r="B94" t="n">
-        <v>7.62222</v>
+        <v>5.02771</v>
       </c>
       <c r="C94" t="n">
-        <v>7622.22</v>
+        <v>5027.71</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88434</v>
+        <v>2.88864</v>
       </c>
       <c r="B95" t="n">
-        <v>7.57158</v>
+        <v>4.99667</v>
       </c>
       <c r="C95" t="n">
-        <v>7571.58</v>
+        <v>4996.67</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91634</v>
+        <v>2.91992</v>
       </c>
       <c r="B96" t="n">
-        <v>7.52988</v>
+        <v>4.96416</v>
       </c>
       <c r="C96" t="n">
-        <v>7529.88</v>
+        <v>4964.16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94834</v>
+        <v>2.95085</v>
       </c>
       <c r="B97" t="n">
-        <v>7.48912</v>
+        <v>4.93059</v>
       </c>
       <c r="C97" t="n">
-        <v>7489.12</v>
+        <v>4930.59</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98034</v>
+        <v>2.98078</v>
       </c>
       <c r="B98" t="n">
-        <v>7.44966</v>
+        <v>4.896100000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>7449.66</v>
+        <v>4896.1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01234</v>
+        <v>3.01251</v>
       </c>
       <c r="B99" t="n">
-        <v>7.40184</v>
+        <v>4.85822</v>
       </c>
       <c r="C99" t="n">
-        <v>7401.84</v>
+        <v>4858.22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04434</v>
+        <v>3.04393</v>
       </c>
       <c r="B100" t="n">
-        <v>7.36112</v>
+        <v>4.81847</v>
       </c>
       <c r="C100" t="n">
-        <v>7361.12</v>
+        <v>4818.47</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07634</v>
+        <v>3.07486</v>
       </c>
       <c r="B101" t="n">
-        <v>7.31857</v>
+        <v>4.77783</v>
       </c>
       <c r="C101" t="n">
-        <v>7318.57</v>
+        <v>4777.83</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10628</v>
+        <v>3.10511</v>
       </c>
       <c r="B102" t="n">
-        <v>7.27534</v>
+        <v>4.73646</v>
       </c>
       <c r="C102" t="n">
-        <v>7275.34</v>
+        <v>4736.46</v>
       </c>
     </row>
   </sheetData>
